--- a/test_docs/testsuite/info_page/good/list_eclated_two_list.xlsx
+++ b/test_docs/testsuite/info_page/good/list_eclated_two_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Nom source</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>n2:s1</t>
+  </si>
+  <si>
+    <t>o2</t>
   </si>
   <si>
     <t>n2:s2</t>
@@ -747,7 +750,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="15"/>
@@ -755,11 +758,11 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
